--- a/Datos_Lab1_Fluidos.xlsx
+++ b/Datos_Lab1_Fluidos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DF9F412-186A-4304-A2CF-D38E5200F741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9409E2F2-1B10-4483-A2B5-73BA43630B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58D34AE2-2488-4B28-8B7D-1043CDF6EE81}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{58D34AE2-2488-4B28-8B7D-1043CDF6EE81}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Posición [cm]</t>
   </si>
@@ -278,6 +278,31 @@
         <scheme val="minor"/>
       </rPr>
       <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [s]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
     </r>
     <r>
       <rPr>
@@ -659,7 +684,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,34 +700,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">

--- a/Datos_Lab1_Fluidos.xlsx
+++ b/Datos_Lab1_Fluidos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9409E2F2-1B10-4483-A2B5-73BA43630B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EC77E1-4325-40F0-A5D7-5AAA43EA24EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{58D34AE2-2488-4B28-8B7D-1043CDF6EE81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58D34AE2-2488-4B28-8B7D-1043CDF6EE81}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Posición [cm]</t>
   </si>
@@ -153,156 +153,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [s]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [s]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [s]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [s]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [s]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [s]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>11</t>
     </r>
     <r>
       <rPr>
@@ -320,6 +170,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,9 +215,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,7 +538,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,27 +565,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="1">
@@ -749,518 +585,298 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5</v>
+      <c r="A3" s="2">
+        <v>3.5</v>
       </c>
       <c r="B3" s="1">
-        <v>1.54</v>
+        <v>3.5</v>
       </c>
       <c r="C3" s="1">
-        <v>1.19</v>
+        <v>3.33</v>
       </c>
       <c r="D3" s="1">
-        <v>1.53</v>
+        <v>3.29</v>
       </c>
       <c r="E3" s="1">
-        <v>1.44</v>
+        <v>3.51</v>
       </c>
       <c r="F3" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1.53</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1.33</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1.35</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1.77</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1.3</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10</v>
+      <c r="A4" s="2">
+        <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>3.03</v>
+        <v>7.02</v>
       </c>
       <c r="C4" s="1">
-        <v>2.66</v>
+        <v>6.88</v>
       </c>
       <c r="D4" s="1">
-        <v>3.03</v>
+        <v>6.78</v>
       </c>
       <c r="E4" s="1">
-        <v>2.97</v>
+        <v>6.93</v>
       </c>
       <c r="F4" s="1">
-        <v>2.99</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2.85</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2.85</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2.66</v>
-      </c>
-      <c r="J4" s="1">
-        <v>2.63</v>
-      </c>
-      <c r="K4" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2.63</v>
-      </c>
+        <v>6.73</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>15</v>
+      <c r="A5" s="2">
+        <v>10.5</v>
       </c>
       <c r="B5" s="1">
-        <v>4.66</v>
+        <v>10.55</v>
       </c>
       <c r="C5" s="1">
-        <v>4.32</v>
+        <v>10.25</v>
       </c>
       <c r="D5" s="1">
-        <v>4.63</v>
+        <v>10.15</v>
       </c>
       <c r="E5" s="1">
-        <v>4.57</v>
+        <v>10.48</v>
       </c>
       <c r="F5" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="H5" s="1">
-        <v>4.25</v>
-      </c>
-      <c r="I5" s="1">
-        <v>4.17</v>
-      </c>
-      <c r="J5" s="1">
-        <v>4.22</v>
-      </c>
-      <c r="K5" s="1">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="L5" s="1">
-        <v>4.26</v>
-      </c>
+        <v>10.38</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>20</v>
+      <c r="A6" s="2">
+        <v>14</v>
       </c>
       <c r="B6" s="1">
-        <v>6.13</v>
+        <v>13.53</v>
       </c>
       <c r="C6" s="1">
-        <v>5.8</v>
+        <v>13.48</v>
       </c>
       <c r="D6" s="1">
-        <v>6.04</v>
+        <v>13.6</v>
       </c>
       <c r="E6" s="1">
-        <v>6.08</v>
+        <v>13.54</v>
       </c>
       <c r="F6" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>5.73</v>
-      </c>
-      <c r="H6" s="1">
-        <v>5.75</v>
-      </c>
-      <c r="I6" s="1">
-        <v>5.56</v>
-      </c>
-      <c r="J6" s="1">
-        <v>5.56</v>
-      </c>
-      <c r="K6" s="1">
-        <v>5.54</v>
-      </c>
-      <c r="L6" s="1">
-        <v>5.53</v>
-      </c>
+        <v>13.62</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>25</v>
+      <c r="A7" s="2">
+        <v>17.5</v>
       </c>
       <c r="B7" s="1">
-        <v>7.63</v>
+        <v>17.12</v>
       </c>
       <c r="C7" s="1">
-        <v>7.32</v>
+        <v>17.09</v>
       </c>
       <c r="D7" s="1">
-        <v>7.52</v>
+        <v>17.059999999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>7.62</v>
+        <v>17.059999999999999</v>
       </c>
       <c r="F7" s="1">
-        <v>7.53</v>
-      </c>
-      <c r="G7" s="1">
-        <v>7.09</v>
-      </c>
-      <c r="H7" s="1">
-        <v>7.15</v>
-      </c>
-      <c r="I7" s="1">
-        <v>6.97</v>
-      </c>
-      <c r="J7" s="1">
-        <v>6.87</v>
-      </c>
-      <c r="K7" s="1">
-        <v>7.01</v>
-      </c>
-      <c r="L7" s="1">
-        <v>6.96</v>
-      </c>
+        <v>17.170000000000002</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>30</v>
+      <c r="A8" s="2">
+        <v>21</v>
       </c>
       <c r="B8" s="1">
-        <v>9.19</v>
+        <v>20.58</v>
       </c>
       <c r="C8" s="1">
-        <v>8.8800000000000008</v>
+        <v>20.51</v>
       </c>
       <c r="D8" s="1">
-        <v>8.9600000000000009</v>
+        <v>20.6</v>
       </c>
       <c r="E8" s="1">
-        <v>9.0399999999999991</v>
+        <v>20.48</v>
       </c>
       <c r="F8" s="1">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G8" s="1">
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="H8" s="1">
-        <v>8.6</v>
-      </c>
-      <c r="I8" s="1">
-        <v>8.44</v>
-      </c>
-      <c r="J8" s="1">
-        <v>8.43</v>
-      </c>
-      <c r="K8" s="1">
-        <v>8.41</v>
-      </c>
-      <c r="L8" s="1">
-        <v>8.5</v>
-      </c>
+        <v>20.46</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>35</v>
+      <c r="A9" s="2">
+        <v>24.5</v>
       </c>
       <c r="B9" s="1">
-        <v>10.64</v>
+        <v>24.52</v>
       </c>
       <c r="C9" s="1">
-        <v>10.28</v>
+        <v>24.33</v>
       </c>
       <c r="D9" s="1">
-        <v>10.45</v>
+        <v>24.15</v>
       </c>
       <c r="E9" s="1">
-        <v>10.49</v>
+        <v>24.42</v>
       </c>
       <c r="F9" s="1">
-        <v>10.52</v>
-      </c>
-      <c r="G9" s="1">
-        <v>9.92</v>
-      </c>
-      <c r="H9" s="1">
-        <v>9.91</v>
-      </c>
-      <c r="I9" s="1">
-        <v>9.89</v>
-      </c>
-      <c r="J9" s="1">
-        <v>9.82</v>
-      </c>
-      <c r="K9" s="1">
-        <v>9.89</v>
-      </c>
-      <c r="L9" s="1">
-        <v>9.89</v>
-      </c>
+        <v>24.38</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>40</v>
+      <c r="A10" s="2">
+        <v>28</v>
       </c>
       <c r="B10" s="1">
-        <v>12.12</v>
+        <v>28.04</v>
       </c>
       <c r="C10" s="1">
-        <v>11.74</v>
+        <v>27.71</v>
       </c>
       <c r="D10" s="1">
-        <v>11.97</v>
+        <v>27.66</v>
       </c>
       <c r="E10" s="1">
-        <v>12.01</v>
+        <v>27.8</v>
       </c>
       <c r="F10" s="1">
-        <v>12.08</v>
-      </c>
-      <c r="G10" s="1">
-        <v>11.27</v>
-      </c>
-      <c r="H10" s="1">
-        <v>11.28</v>
-      </c>
-      <c r="I10" s="1">
-        <v>11.34</v>
-      </c>
-      <c r="J10" s="1">
-        <v>11.22</v>
-      </c>
-      <c r="K10" s="1">
-        <v>11.31</v>
-      </c>
-      <c r="L10" s="1">
-        <v>11.59</v>
-      </c>
+        <v>27.56</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>45</v>
+      <c r="A11" s="2">
+        <v>31.5</v>
       </c>
       <c r="B11" s="1">
-        <v>13.68</v>
+        <v>31.36</v>
       </c>
       <c r="C11" s="1">
-        <v>13.35</v>
+        <v>31.15</v>
       </c>
       <c r="D11" s="1">
-        <v>13.49</v>
+        <v>31.06</v>
       </c>
       <c r="E11" s="1">
-        <v>13.59</v>
+        <v>31.42</v>
       </c>
       <c r="F11" s="1">
-        <v>13.66</v>
-      </c>
-      <c r="G11" s="1">
-        <v>12.81</v>
-      </c>
-      <c r="H11" s="1">
-        <v>12.67</v>
-      </c>
-      <c r="I11" s="1">
-        <v>12.7</v>
-      </c>
-      <c r="J11" s="1">
-        <v>12.67</v>
-      </c>
-      <c r="K11" s="1">
-        <v>12.9</v>
-      </c>
-      <c r="L11" s="1">
-        <v>12.8</v>
-      </c>
+        <v>31.22</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>50</v>
-      </c>
-      <c r="B12" s="1">
-        <v>15.12</v>
-      </c>
-      <c r="C12" s="1">
-        <v>14.77</v>
-      </c>
-      <c r="D12" s="1">
-        <v>14.98</v>
-      </c>
-      <c r="E12" s="1">
-        <v>14.99</v>
-      </c>
-      <c r="F12" s="1">
-        <v>15.19</v>
-      </c>
-      <c r="G12" s="1">
-        <v>14.25</v>
-      </c>
-      <c r="H12" s="1">
-        <v>14.32</v>
-      </c>
-      <c r="I12" s="1">
-        <v>14.18</v>
-      </c>
-      <c r="J12" s="1">
-        <v>14.13</v>
-      </c>
-      <c r="K12" s="1">
-        <v>14.2</v>
-      </c>
-      <c r="L12" s="1">
-        <v>14.2</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>55</v>
-      </c>
-      <c r="B13" s="1">
-        <v>16.510000000000002</v>
-      </c>
-      <c r="C13" s="1">
-        <v>16.190000000000001</v>
-      </c>
-      <c r="D13" s="1">
-        <v>16.41</v>
-      </c>
-      <c r="E13" s="1">
-        <v>16.440000000000001</v>
-      </c>
-      <c r="F13" s="1">
-        <v>16.66</v>
-      </c>
-      <c r="G13" s="1">
-        <v>15.72</v>
-      </c>
-      <c r="H13" s="1">
-        <v>15.79</v>
-      </c>
-      <c r="I13" s="1">
-        <v>15.71</v>
-      </c>
-      <c r="J13" s="1">
-        <v>15.57</v>
-      </c>
-      <c r="K13" s="1">
-        <v>15.52</v>
-      </c>
-      <c r="L13" s="1">
-        <v>15.8</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>60</v>
-      </c>
-      <c r="B14" s="1">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="C14" s="1">
-        <v>17.77</v>
-      </c>
-      <c r="D14" s="1">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="E14" s="1">
-        <v>17.89</v>
-      </c>
-      <c r="F14" s="1">
-        <v>18.07</v>
-      </c>
-      <c r="G14" s="1">
-        <v>17.14</v>
-      </c>
-      <c r="H14" s="1">
-        <v>17.22</v>
-      </c>
-      <c r="I14" s="1">
-        <v>17.2</v>
-      </c>
-      <c r="J14" s="1">
-        <v>17.05</v>
-      </c>
-      <c r="K14" s="1">
-        <v>17.149999999999999</v>
-      </c>
-      <c r="L14" s="1">
-        <v>17.25</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>65</v>
-      </c>
-      <c r="B15" s="1">
-        <v>19.5</v>
-      </c>
-      <c r="C15" s="1">
-        <v>19.149999999999999</v>
-      </c>
-      <c r="D15" s="1">
-        <v>19.34</v>
-      </c>
-      <c r="E15" s="1">
-        <v>19.34</v>
-      </c>
-      <c r="F15" s="1">
-        <v>19.36</v>
-      </c>
-      <c r="G15" s="1">
-        <v>18.559999999999999</v>
-      </c>
-      <c r="H15" s="1">
-        <v>18.64</v>
-      </c>
-      <c r="I15" s="1">
-        <v>18.62</v>
-      </c>
-      <c r="J15" s="1">
-        <v>18.41</v>
-      </c>
-      <c r="K15" s="1">
-        <v>18.579999999999998</v>
-      </c>
-      <c r="L15" s="1">
-        <v>18.649999999999999</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
